--- a/Test_Framework/_TransactionTests.xlsx
+++ b/Test_Framework/_TransactionTests.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Exception</t>
   </si>
@@ -83,18 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TransactionID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TransactionField1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TransactionField2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Exception</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,6 +124,14 @@
   </si>
   <si>
     <t>BRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No exception thrown</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -608,81 +604,90 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
